--- a/data/financial_statements/soci/LMT.xlsx
+++ b/data/financial_statements/soci/LMT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,3946 +596,4027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>18991000000</v>
+      </c>
+      <c r="C2">
         <v>16583000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15446000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>14964000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>17729000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16028000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17029000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>16258000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>17032000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16495000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16220000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15651000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>15878000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15171000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>14427000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>14336000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>14411000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>14318000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>13398000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>11635000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>13844000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>12341000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>12563000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>11212000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>13794000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>11551000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>11577000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>10368000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>8722000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10060000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>11643000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>10111000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>6876000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>11114000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>11306000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>10650000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>11533000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>11347000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>11408000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>11070000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0712</v>
+      </c>
+      <c r="C3">
         <v>0.0346</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.093</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0796</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0409</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0283</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0499</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0388</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0727</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0873</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.1243</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0917</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1018</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0596</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.07679999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.2321</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.041</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1602</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0665</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0377</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0036</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0684</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0852</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0814</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.5815</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1482</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0057</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0254</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2685</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0948</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0298</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0506</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.4038</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0205</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0089</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0379</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0468</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.044</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.043</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0197</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>16689000000</v>
+      </c>
+      <c r="C4">
         <v>14463000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>13490000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>13055000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15307000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13726000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14878000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>14072000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14818000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14359000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14007000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>13560000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13755000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13108000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12434000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12148000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>12469000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>12397000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>11645000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>9977000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>12135000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>10741000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>10907000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9806000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>12102000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>10167000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>10347000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9273000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>7961000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8963000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>10272000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8848000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6180000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>9839000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>9965000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>9279000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>10795000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>10163000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>10184000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>10029000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>2302000000</v>
+      </c>
+      <c r="C5">
         <v>2120000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1956000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1909000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2422000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2302000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2151000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2186000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2214000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2136000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2213000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2091000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2123000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2063000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1993000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2188000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1942000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1921000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1753000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1658000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1709000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1600000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1656000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1406000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1692000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1384000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1230000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1095000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>761000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1097000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1371000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1263000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>696000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1275000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1341000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1371000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>738000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1184000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1224000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1041000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2293000000</v>
+      </c>
+      <c r="C6">
         <v>2159000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1963000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1933000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2455000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2294000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2192000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2182000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2289000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2147000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2086000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2122000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2149000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2105000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2008000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2283000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1851000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1963000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1795000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1725000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1949000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1677000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1716000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1402000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1767000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1588000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1375000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1158000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>719000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1192000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1445000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1356000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>762000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1392000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1426000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1432000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>834000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1254000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1298000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1119000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>145000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>141000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>135000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>141000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>142000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>140000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>149000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>145000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>149000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>148000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>157000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>202000000</v>
+      </c>
+      <c r="C8">
         <v>145000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>141000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>135000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>146000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>141000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>142000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>140000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>149000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>145000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>149000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>148000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>157000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>162000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>163000000</v>
-      </c>
-      <c r="P8">
-        <v>171000000</v>
       </c>
       <c r="Q8">
         <v>171000000</v>
       </c>
       <c r="R8">
+        <v>171000000</v>
+      </c>
+      <c r="S8">
         <v>177000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>165000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>155000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>174000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>162000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>160000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>155000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>171000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>162000000</v>
-      </c>
-      <c r="AA8">
-        <v>165000000</v>
       </c>
       <c r="AB8">
         <v>165000000</v>
       </c>
       <c r="AC8">
+        <v>165000000</v>
+      </c>
+      <c r="AD8">
         <v>142000000</v>
-      </c>
-      <c r="AD8">
-        <v>104000000</v>
       </c>
       <c r="AE8">
         <v>104000000</v>
       </c>
       <c r="AF8">
+        <v>104000000</v>
+      </c>
+      <c r="AG8">
         <v>93000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>87000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>82000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>85000000</v>
-      </c>
-      <c r="AJ8">
-        <v>86000000</v>
       </c>
       <c r="AK8">
         <v>86000000</v>
       </c>
       <c r="AL8">
+        <v>86000000</v>
+      </c>
+      <c r="AM8">
         <v>84000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>88000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>92000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-103000000</v>
+      </c>
+      <c r="C9">
         <v>-60000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1633000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>128000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>35000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-1615000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-22000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>29000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-102000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-91000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-124000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-92000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-317000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-324000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-325000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-338000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-368000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-388000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-375000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-365000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-377000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-380000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-374000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-367000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-644000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-161000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-165000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-164000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-118000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-103000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-102000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-90000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-85000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-81000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-85000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-84000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-88000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-81000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-87000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-94000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2190000000</v>
+      </c>
+      <c r="C10">
         <v>2099000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>330000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2061000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2490000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>679000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2170000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2211000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2187000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2056000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1962000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2030000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1832000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1781000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1683000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1945000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1483000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1575000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1420000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1360000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1572000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1297000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1342000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1035000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1123000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1427000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1210000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>994000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>601000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1089000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1343000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1266000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>677000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1311000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1341000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1348000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>746000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1173000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1211000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1025000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>278000000</v>
+      </c>
+      <c r="C11">
         <v>321000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>21000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>328000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>441000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>65000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>355000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>374000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>395000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>303000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>336000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>313000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>334000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>173000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>263000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>241000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>230000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>102000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>257000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>203000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2389000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>334000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>387000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>246000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>256000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>338000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>311000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>188000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>38000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>333000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>414000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>388000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>134000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>423000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>452000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>415000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>258000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>331000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>352000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>264000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1912000000</v>
+      </c>
+      <c r="C12">
         <v>1778000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>309000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1733000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2049000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>614000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1815000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1837000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1792000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1753000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1626000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1717000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1498000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1608000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1420000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1704000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1253000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1473000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1163000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1157000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-817000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>963000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>955000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>789000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>867000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1089000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>899000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>806000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>563000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>756000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>929000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>878000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>543000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>888000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>889000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>933000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>488000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>842000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>859000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>761000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1912000000</v>
+      </c>
+      <c r="C13">
         <v>1778000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>309000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1733000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2049000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>614000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1815000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1837000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1792000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1698000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1626000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1717000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1498000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1608000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1420000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1704000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1253000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1473000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1163000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1157000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-744000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>963000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>955000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>789000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>859000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2395000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1021000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>898000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>933000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>865000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>929000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>878000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>904000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>888000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>889000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>933000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>488000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>873000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>859000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>761000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>6.73</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.16</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6.46</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7.5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.22</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.54</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.58</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6.41</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6.08</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5.81</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5.32</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5.7</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5.03</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>6.03</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4.43</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5.18</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4.08</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4.05</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2.25</v>
-      </c>
-      <c r="V14">
-        <v>3.27</v>
       </c>
       <c r="W14">
         <v>3.27</v>
       </c>
       <c r="X14">
+        <v>3.27</v>
+      </c>
+      <c r="Y14">
         <v>2.63</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3.39</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>8.02</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3.37</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2.61</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3.05</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2.8</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2.98</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2.78</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2.87</v>
-      </c>
-      <c r="AH14">
-        <v>2.81</v>
       </c>
       <c r="AI14">
         <v>2.81</v>
       </c>
       <c r="AJ14">
+        <v>2.81</v>
+      </c>
+      <c r="AK14">
         <v>2.92</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.53</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2.72</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2.68</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2.37</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>6.71</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.16</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6.44</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>7.47</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.21</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6.52</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6.56</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6.38</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6.05</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5.79</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6.08</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.29</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5.66</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>5.99</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4.39</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>5.14</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4.05</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4.02</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-2.25</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3.24</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3.23</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2.61</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3.35</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>7.93</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3.32</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2.58</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3.01</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2.77</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2.94</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2.74</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2.82</v>
-      </c>
-      <c r="AH15">
-        <v>2.76</v>
       </c>
       <c r="AI15">
         <v>2.76</v>
       </c>
       <c r="AJ15">
+        <v>2.76</v>
+      </c>
+      <c r="AK15">
         <v>2.87</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.5</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2.66</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2.64</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2.33</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>257100000</v>
+      </c>
+      <c r="C16">
         <v>264100000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>265800000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>268300000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>276400000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>276200000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>277400000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>279000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>280000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>279300000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>279800000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>281300000</v>
-      </c>
-      <c r="M16">
-        <v>282000000</v>
       </c>
       <c r="N16">
         <v>282000000</v>
       </c>
       <c r="O16">
+        <v>282000000</v>
+      </c>
+      <c r="P16">
         <v>282200000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>282500000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>284500000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>284300000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>285000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>285500000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>287800000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>287100000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>288500000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>290000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>299300000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>298500000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>303100000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>304500000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>310300000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>308400000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>312000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>315400000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>316800000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>316300000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>316800000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>319100000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>320900000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>321300000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>320800000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>321700000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>258300000</v>
+      </c>
+      <c r="C17">
         <v>265100000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>266700000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>269200000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>277400000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>277300000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>278400000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>280000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>281200000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>280600000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>280800000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>282600000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>283800000</v>
-      </c>
-      <c r="N17">
-        <v>283900000</v>
       </c>
       <c r="O17">
         <v>283900000</v>
       </c>
       <c r="P17">
+        <v>283900000</v>
+      </c>
+      <c r="Q17">
         <v>284300000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>286800000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>286700000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>287100000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>287900000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>290600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>290000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>291200000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>292800000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>303100000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>302100000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>307100000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>308700000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>314700000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>312700000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>316100000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>320200000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>322400000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>321800000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>322100000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>325100000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>326500000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>327500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>325900000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>326300000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0.1212</v>
+      </c>
+      <c r="C18">
         <v>0.1278</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.1266</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1276</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.1366</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.1436</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.1263</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.1345</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.13</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.1295</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.1364</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.1336</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.1337</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.136</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.1381</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.1526</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.1348</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.1342</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.1308</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.1425</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.1234</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.1296</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.1318</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.1254</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.1227</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.1198</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.1062</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.1056</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.0873</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.109</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.1178</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.1249</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.1012</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.1147</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.1186</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.1287</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.064</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.1043</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.1073</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.094</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.1207</v>
+      </c>
+      <c r="C19">
         <v>0.1302</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1271</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.1292</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.1385</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1431</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.1287</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.1342</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.1344</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.1302</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.1286</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.1356</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.1353</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.1388</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.1392</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.1592</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.1284</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.1371</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.134</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.1483</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.1408</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.1359</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.1366</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.125</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.1281</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.1375</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.1188</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.1117</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.0824</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.1185</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.1241</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.1341</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.1108</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.1252</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.1261</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.1345</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.0723</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.1105</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.1138</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.1011</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.1153</v>
+      </c>
+      <c r="C20">
         <v>0.1266</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.0214</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.1377</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1404</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.0424</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1274</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.136</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1284</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1246</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.121</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1297</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.1154</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1174</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.1167</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.1357</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.1029</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.11</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.106</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.1169</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1136</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.1051</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.1068</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.09229999999999999</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.0814</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.1235</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.1045</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.0959</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.0689</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.1083</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.1153</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1252</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.0985</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.118</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1186</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.1266</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.06469999999999999</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.1034</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.1062</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.0926</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1007</v>
+      </c>
+      <c r="C21">
         <v>0.1072</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.02</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1158</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1156</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0383</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1066</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.113</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1052</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1029</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1002</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1097</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.09429999999999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.106</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.0984</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1189</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.08690000000000001</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1029</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.0868</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.0994</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-0.0537</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.078</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.076</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.0704</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.0623</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2073</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.0882</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.0866</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.107</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.08599999999999999</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.0798</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.0868</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1315</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.0799</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.0786</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.0876</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.0423</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.0769</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.07530000000000001</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.0687</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>2452000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2306000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2262000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2820000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2623000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2526000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2518000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2652000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2466000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2393000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2423000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2471000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2407000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2296000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2560000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2155000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2254000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2082000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2004000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2264000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1976000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2012000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1687000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>2094000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1883000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1672000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1454000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1019000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1428000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1691000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1600000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1030000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1639000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1668000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1669000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1120000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1486000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1538000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1351000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>2293000000</v>
+      </c>
+      <c r="C23">
         <v>2159000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1963000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1933000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2455000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2294000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2192000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2182000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2289000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2147000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2086000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2122000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2149000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2105000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2008000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2283000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1851000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1963000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1795000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1725000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1949000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1677000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1716000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1402000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1767000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1588000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1375000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1158000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>719000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1192000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1445000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1356000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>762000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1392000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1426000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1432000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>834000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1254000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1298000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1119000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1912000000</v>
+      </c>
+      <c r="C24">
         <v>1778000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>309000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1733000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2049000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>614000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1815000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1837000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1792000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1753000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1626000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1717000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1498000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1608000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1420000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1704000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1253000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1473000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1163000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1157000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-817000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>963000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>955000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>789000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>867000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1089000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>899000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>806000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>563000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>756000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>929000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>878000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>543000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>888000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>889000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>933000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>488000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>842000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>859000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>761000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>-55000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-8000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1306000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>122000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>92000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>370000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>109000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>31000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1912000000</v>
+      </c>
+      <c r="C26">
         <v>1778000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>309000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1733000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2049000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>614000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1815000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1837000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1792000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1698000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1626000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1717000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1498000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1608000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1420000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1704000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1253000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1473000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1163000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1157000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-744000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>963000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>955000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>789000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>859000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2395000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1021000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>898000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>933000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>865000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>929000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>878000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>904000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>888000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>889000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>933000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>488000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>873000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>859000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>761000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>7.4368</v>
+      </c>
+      <c r="C27">
         <v>6.7323</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.1625</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6.4592</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7.4998</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.223</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6.5429</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6.5842</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6.4049</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6.28</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.8113</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6.1038</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.3262</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5.7</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5.0319</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6.0319</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>4.4256</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5.1811</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4.0807</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4.0525</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-2.8251</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3.3542</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.3102</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2.7207</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2.97</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3.64</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2.97</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2.65</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.8587</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2.45</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>2.9776</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2.7838</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1.7325</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2.8075</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2.8062</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2.9238</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1.5268</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2.62</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2.6777</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>2.3656</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>7.4022</v>
+      </c>
+      <c r="C28">
         <v>6.7069</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.1586</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6.4376</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7.4657</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.2142</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6.5194</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6.5607</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6.3837</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6.25</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.7906</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6.0757</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.2946</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>5.66</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>5.0018</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.9937</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4.3826</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>5.1378</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4.0509</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.0188</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-2.7949</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3.3207</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3.2795</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2.6947</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2.93</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3.61</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2.93</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2.61</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.829</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2.42</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2.9389</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2.742</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1.7006</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2.7595</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2.76</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2.8699</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1.502</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2.57</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>2.6358</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2.3322</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>-0.2</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-0.02</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>4.32</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.39</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.3</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.18</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.35</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.09</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>-0.2</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.03</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>4.38</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.4</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.3</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.2</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.35</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>7.4368</v>
+      </c>
+      <c r="C31">
         <v>6.7323</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.1625</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6.4592</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7.4972</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.223</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6.5429</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.5842</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6.409</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>6.0795</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5.8113</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>6.1038</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>5.3263</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>5.7021</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>5.0319</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>6.0319</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>4.422</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5.1811</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>4.0807</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4.0525</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-2.5644</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3.3542</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3.3102</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2.7207</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2.9426</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>8.0235</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>3.3685</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>2.9491</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3.0517</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2.8048</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2.9776</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2.7838</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>2.8703</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>2.8075</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>2.8062</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>2.9238</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.5292</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2.7171</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2.6777</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2.3656</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>7.4022</v>
+      </c>
+      <c r="C32">
         <v>6.7069</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.1586</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>6.4376</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7.4706</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.2142</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>6.5194</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6.5607</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6.3818</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.0513</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5.7906</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>6.0757</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>5.2927</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>5.664</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>5.0018</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>5.9937</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>4.3868</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>5.1378</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4.0509</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4.0188</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-2.5399</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.3207</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3.2795</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2.6947</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2.9055</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>7.9278</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>3.3247</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2.909</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>3.0081</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2.7662</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2.9389</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2.742</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2.8203</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2.7595</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2.76</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>2.8699</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1.4965</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2.6656</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2.6358</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2.3322</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>265100000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>266700000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>269200000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>274300000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>277300000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>278400000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>280000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>281000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>280600000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>280800000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>282600000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>283300000</v>
-      </c>
-      <c r="N33">
-        <v>283900000</v>
       </c>
       <c r="O33">
         <v>283900000</v>
       </c>
       <c r="P33">
+        <v>283900000</v>
+      </c>
+      <c r="Q33">
         <v>284300000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>285500000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>286700000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>287100000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>287900000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>285900000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>290000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>291200000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>292800000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>295200000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>302100000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>307100000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>307800000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>310200000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>312700000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>316100000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>320200000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>320600000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>321800000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>322100000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>325100000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>326300000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>327500000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>325900000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>326300000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.1479</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1493</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1512</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1591</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1637</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.1483</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1549</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.1557</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.1495</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1475</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.1548</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.1556</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.1587</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.1591</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.1786</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.1495</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.1574</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.1554</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.1722</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.1635</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1601</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.1602</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.1505</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.1518</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.163</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.1444</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.1402</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.1168</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.1419</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1452</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1582</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.1498</v>
-      </c>
-      <c r="AH34">
-        <v>0.1475</v>
       </c>
       <c r="AI34">
         <v>0.1475</v>
       </c>
       <c r="AJ34">
+        <v>0.1475</v>
+      </c>
+      <c r="AK34">
         <v>0.1567</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.09710000000000001</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.131</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.1348</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.122</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.1015</v>
+      </c>
+      <c r="C35">
         <v>0.1889</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.0862</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.09420000000000001</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.2407</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.1209</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.0745</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.1075</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.1061</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.114</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.1345</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.1478</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.09379999999999999</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.1641</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.1156</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.116</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.1538</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.0252</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-0.0054</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.0543</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.1092</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.1421</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.1229</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.1486</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.0528</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.1143</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.1272</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.1608</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.1564</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.1508</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.1085</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.0946</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-0.0292</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.0891</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.0864</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.1972</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.0813</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.0793</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.0546</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.1883</v>
       </c>
     </row>
